--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T14:34:38+00:00</t>
+    <t>2025-08-12T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:19:17+00:00</t>
+    <t>2025-08-12T15:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:54:36+00:00</t>
+    <t>2025-08-12T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:52:42+00:00</t>
+    <t>2025-08-13T14:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:10:49+00:00</t>
+    <t>2025-08-13T14:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:38:26+00:00</t>
+    <t>2025-08-13T16:08:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:08:05+00:00</t>
+    <t>2025-08-13T16:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T16:43:50+00:00</t>
+    <t>2025-08-14T09:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
+++ b/VoitureBalaisDecisions/ig/StructureDefinition-fr-medication-to-dispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T09:57:22+00:00</t>
+    <t>2025-08-14T13:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
